--- a/optimize/Axiory/covid/MA45/NIKKEI/M5/matrix_NIKKEI_M5_MA45_2020_1.xlsx
+++ b/optimize/Axiory/covid/MA45/NIKKEI/M5/matrix_NIKKEI_M5_MA45_2020_1.xlsx
@@ -444,31 +444,31 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>7360</v>
+        <v>7370</v>
       </c>
       <c r="C2">
-        <v>6048</v>
+        <v>6058</v>
       </c>
       <c r="D2">
-        <v>2690</v>
+        <v>2700</v>
       </c>
       <c r="E2">
-        <v>3354</v>
+        <v>3364</v>
       </c>
       <c r="F2">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="G2">
-        <v>4110</v>
+        <v>4120</v>
       </c>
       <c r="H2">
-        <v>6752</v>
+        <v>6762</v>
       </c>
       <c r="I2">
-        <v>-6604</v>
+        <v>-6594</v>
       </c>
       <c r="J2">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>6166</v>
+        <v>6176</v>
       </c>
       <c r="C3">
-        <v>2536</v>
+        <v>2546</v>
       </c>
       <c r="D3">
-        <v>3230</v>
+        <v>3240</v>
       </c>
       <c r="E3">
-        <v>3550</v>
+        <v>3560</v>
       </c>
       <c r="F3">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G3">
-        <v>-442</v>
+        <v>-432</v>
       </c>
       <c r="H3">
-        <v>2202</v>
+        <v>2212</v>
       </c>
       <c r="I3">
-        <v>3276</v>
+        <v>3286</v>
       </c>
       <c r="J3">
-        <v>2928</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>3596</v>
+        <v>3606</v>
       </c>
       <c r="C4">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="D4">
-        <v>3824</v>
+        <v>3834</v>
       </c>
       <c r="E4">
-        <v>-936</v>
+        <v>-926</v>
       </c>
       <c r="F4">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="G4">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="H4">
-        <v>3042</v>
+        <v>3052</v>
       </c>
       <c r="I4">
-        <v>1548</v>
+        <v>1558</v>
       </c>
       <c r="J4">
-        <v>9566</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>3132</v>
+        <v>3142</v>
       </c>
       <c r="C5">
-        <v>4946</v>
+        <v>4956</v>
       </c>
       <c r="D5">
-        <v>4298</v>
+        <v>4308</v>
       </c>
       <c r="E5">
-        <v>5112</v>
+        <v>5122</v>
       </c>
       <c r="F5">
-        <v>5640</v>
+        <v>5650</v>
       </c>
       <c r="G5">
-        <v>2370</v>
+        <v>2380</v>
       </c>
       <c r="H5">
-        <v>1778</v>
+        <v>1788</v>
       </c>
       <c r="I5">
-        <v>11966</v>
+        <v>11976</v>
       </c>
       <c r="J5">
-        <v>15000</v>
+        <v>15010</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>3504</v>
+        <v>3514</v>
       </c>
       <c r="C6">
-        <v>2550</v>
+        <v>2560</v>
       </c>
       <c r="D6">
-        <v>3584</v>
+        <v>3594</v>
       </c>
       <c r="E6">
-        <v>4826</v>
+        <v>4836</v>
       </c>
       <c r="F6">
-        <v>6968</v>
+        <v>6978</v>
       </c>
       <c r="G6">
-        <v>3422</v>
+        <v>3432</v>
       </c>
       <c r="H6">
-        <v>1382</v>
+        <v>1392</v>
       </c>
       <c r="I6">
-        <v>10852</v>
+        <v>10862</v>
       </c>
       <c r="J6">
-        <v>16672</v>
+        <v>16682</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -604,31 +604,31 @@
         <v>30</v>
       </c>
       <c r="B7">
-        <v>3942</v>
+        <v>3952</v>
       </c>
       <c r="C7">
-        <v>2286</v>
+        <v>2296</v>
       </c>
       <c r="D7">
-        <v>2032</v>
+        <v>2042</v>
       </c>
       <c r="E7">
-        <v>4812</v>
+        <v>4822</v>
       </c>
       <c r="F7">
-        <v>4424</v>
+        <v>4434</v>
       </c>
       <c r="G7">
-        <v>1434</v>
+        <v>1444</v>
       </c>
       <c r="H7">
-        <v>-2796</v>
+        <v>-2786</v>
       </c>
       <c r="I7">
-        <v>6426</v>
+        <v>6436</v>
       </c>
       <c r="J7">
-        <v>14048</v>
+        <v>14058</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -636,31 +636,31 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>5320</v>
+        <v>5330</v>
       </c>
       <c r="C8">
-        <v>2098</v>
+        <v>2108</v>
       </c>
       <c r="D8">
-        <v>2920</v>
+        <v>2930</v>
       </c>
       <c r="E8">
-        <v>6310</v>
+        <v>6320</v>
       </c>
       <c r="F8">
-        <v>7596</v>
+        <v>7606</v>
       </c>
       <c r="G8">
-        <v>6384</v>
+        <v>6394</v>
       </c>
       <c r="H8">
-        <v>-4560</v>
+        <v>-4550</v>
       </c>
       <c r="I8">
-        <v>7714</v>
+        <v>7724</v>
       </c>
       <c r="J8">
-        <v>10310</v>
+        <v>10320</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -668,31 +668,31 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>6178</v>
+        <v>6188</v>
       </c>
       <c r="C9">
-        <v>4522</v>
+        <v>4532</v>
       </c>
       <c r="D9">
-        <v>1936</v>
+        <v>1946</v>
       </c>
       <c r="E9">
-        <v>6072</v>
+        <v>6082</v>
       </c>
       <c r="F9">
-        <v>4802</v>
+        <v>4812</v>
       </c>
       <c r="G9">
-        <v>5722</v>
+        <v>5732</v>
       </c>
       <c r="H9">
-        <v>-4396</v>
+        <v>-4386</v>
       </c>
       <c r="I9">
-        <v>4658</v>
+        <v>4668</v>
       </c>
       <c r="J9">
-        <v>7968</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -700,31 +700,31 @@
         <v>45</v>
       </c>
       <c r="B10">
-        <v>5572</v>
+        <v>5582</v>
       </c>
       <c r="C10">
-        <v>2784</v>
+        <v>2794</v>
       </c>
       <c r="D10">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="E10">
-        <v>6432</v>
+        <v>6442</v>
       </c>
       <c r="F10">
-        <v>6316</v>
+        <v>6326</v>
       </c>
       <c r="G10">
-        <v>5094</v>
+        <v>5104</v>
       </c>
       <c r="H10">
-        <v>-1794</v>
+        <v>-1784</v>
       </c>
       <c r="I10">
-        <v>1484</v>
+        <v>1494</v>
       </c>
       <c r="J10">
-        <v>9526</v>
+        <v>9536</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -732,31 +732,31 @@
         <v>50</v>
       </c>
       <c r="B11">
-        <v>6604</v>
+        <v>6614</v>
       </c>
       <c r="C11">
-        <v>4218</v>
+        <v>4228</v>
       </c>
       <c r="D11">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E11">
-        <v>4578</v>
+        <v>4588</v>
       </c>
       <c r="F11">
-        <v>6614</v>
+        <v>6624</v>
       </c>
       <c r="G11">
-        <v>5278</v>
+        <v>5288</v>
       </c>
       <c r="H11">
-        <v>-430</v>
+        <v>-420</v>
       </c>
       <c r="I11">
-        <v>2734</v>
+        <v>2744</v>
       </c>
       <c r="J11">
-        <v>6372</v>
+        <v>6382</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -764,31 +764,31 @@
         <v>55</v>
       </c>
       <c r="B12">
-        <v>5172</v>
+        <v>5182</v>
       </c>
       <c r="C12">
-        <v>5318</v>
+        <v>5328</v>
       </c>
       <c r="D12">
-        <v>-210</v>
+        <v>-200</v>
       </c>
       <c r="E12">
-        <v>3154</v>
+        <v>3164</v>
       </c>
       <c r="F12">
-        <v>8554</v>
+        <v>8564</v>
       </c>
       <c r="G12">
-        <v>8400</v>
+        <v>8410</v>
       </c>
       <c r="H12">
-        <v>-1592</v>
+        <v>-1582</v>
       </c>
       <c r="I12">
-        <v>3040</v>
+        <v>3050</v>
       </c>
       <c r="J12">
-        <v>7570</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -796,31 +796,31 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>5154</v>
+        <v>5164</v>
       </c>
       <c r="C13">
-        <v>5622</v>
+        <v>5632</v>
       </c>
       <c r="D13">
-        <v>1324</v>
+        <v>1334</v>
       </c>
       <c r="E13">
-        <v>3926</v>
+        <v>3936</v>
       </c>
       <c r="F13">
-        <v>12990</v>
+        <v>13000</v>
       </c>
       <c r="G13">
-        <v>5716</v>
+        <v>5726</v>
       </c>
       <c r="H13">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I13">
-        <v>5284</v>
+        <v>5294</v>
       </c>
       <c r="J13">
-        <v>7412</v>
+        <v>7422</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -828,31 +828,31 @@
         <v>65</v>
       </c>
       <c r="B14">
-        <v>6020</v>
+        <v>6030</v>
       </c>
       <c r="C14">
-        <v>4972</v>
+        <v>4982</v>
       </c>
       <c r="D14">
-        <v>-864</v>
+        <v>-854</v>
       </c>
       <c r="E14">
-        <v>3266</v>
+        <v>3276</v>
       </c>
       <c r="F14">
-        <v>10890</v>
+        <v>10900</v>
       </c>
       <c r="G14">
-        <v>13862</v>
+        <v>13872</v>
       </c>
       <c r="H14">
-        <v>3690</v>
+        <v>3700</v>
       </c>
       <c r="I14">
-        <v>4020</v>
+        <v>4030</v>
       </c>
       <c r="J14">
-        <v>8110</v>
+        <v>8120</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -860,31 +860,31 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>5486</v>
+        <v>5496</v>
       </c>
       <c r="C15">
-        <v>7510</v>
+        <v>7520</v>
       </c>
       <c r="D15">
-        <v>-1586</v>
+        <v>-1576</v>
       </c>
       <c r="E15">
-        <v>3226</v>
+        <v>3236</v>
       </c>
       <c r="F15">
-        <v>6880</v>
+        <v>6890</v>
       </c>
       <c r="G15">
-        <v>13008</v>
+        <v>13018</v>
       </c>
       <c r="H15">
-        <v>1698</v>
+        <v>1708</v>
       </c>
       <c r="I15">
-        <v>-774</v>
+        <v>-764</v>
       </c>
       <c r="J15">
-        <v>8774</v>
+        <v>8784</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -892,31 +892,31 @@
         <v>75</v>
       </c>
       <c r="B16">
-        <v>6548</v>
+        <v>6558</v>
       </c>
       <c r="C16">
-        <v>7058</v>
+        <v>7068</v>
       </c>
       <c r="D16">
-        <v>-1334</v>
+        <v>-1324</v>
       </c>
       <c r="E16">
-        <v>1632</v>
+        <v>1642</v>
       </c>
       <c r="F16">
-        <v>9896</v>
+        <v>9906</v>
       </c>
       <c r="G16">
-        <v>9002</v>
+        <v>9012</v>
       </c>
       <c r="H16">
-        <v>2404</v>
+        <v>2414</v>
       </c>
       <c r="I16">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="J16">
-        <v>4966</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -924,31 +924,31 @@
         <v>80</v>
       </c>
       <c r="B17">
-        <v>6978</v>
+        <v>6988</v>
       </c>
       <c r="C17">
-        <v>6112</v>
+        <v>6122</v>
       </c>
       <c r="D17">
-        <v>-2060</v>
+        <v>-2050</v>
       </c>
       <c r="E17">
-        <v>3664</v>
+        <v>3674</v>
       </c>
       <c r="F17">
-        <v>7966</v>
+        <v>7976</v>
       </c>
       <c r="G17">
-        <v>11988</v>
+        <v>11998</v>
       </c>
       <c r="H17">
-        <v>3664</v>
+        <v>3674</v>
       </c>
       <c r="I17">
-        <v>6170</v>
+        <v>6180</v>
       </c>
       <c r="J17">
-        <v>6860</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -956,31 +956,31 @@
         <v>85</v>
       </c>
       <c r="B18">
-        <v>6358</v>
+        <v>6368</v>
       </c>
       <c r="C18">
-        <v>6558</v>
+        <v>6568</v>
       </c>
       <c r="D18">
-        <v>-1022</v>
+        <v>-1012</v>
       </c>
       <c r="E18">
-        <v>4844</v>
+        <v>4854</v>
       </c>
       <c r="F18">
-        <v>9266</v>
+        <v>9276</v>
       </c>
       <c r="G18">
-        <v>7278</v>
+        <v>7288</v>
       </c>
       <c r="H18">
-        <v>3220</v>
+        <v>3230</v>
       </c>
       <c r="I18">
-        <v>7942</v>
+        <v>7952</v>
       </c>
       <c r="J18">
-        <v>6994</v>
+        <v>7004</v>
       </c>
     </row>
   </sheetData>
